--- a/Results/Opinion/SERVICE.xlsx
+++ b/Results/Opinion/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>opini</t>
   </si>
@@ -142,6 +142,9 @@
     <t>only</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>patient</t>
   </si>
   <si>
@@ -178,13 +181,7 @@
     <t>rude</t>
   </si>
   <si>
-    <t>same</t>
-  </si>
-  <si>
     <t>sensual</t>
-  </si>
-  <si>
-    <t>several</t>
   </si>
   <si>
     <t>short</t>
@@ -581,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -614,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -625,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -636,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -647,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -680,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -691,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -702,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -713,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -724,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -735,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -746,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -757,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -768,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -779,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -801,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -812,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -823,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -834,7 +831,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -845,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -856,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -867,7 +864,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -878,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -889,7 +886,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -900,7 +897,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -911,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -922,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -933,7 +930,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -944,7 +941,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -955,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -966,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -977,7 +974,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -988,7 +985,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -999,7 +996,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1010,7 +1007,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1021,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1032,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1043,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1054,7 +1051,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1065,7 +1062,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1076,7 +1073,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1087,7 +1084,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1098,7 +1095,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1109,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1120,7 +1117,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1131,7 +1128,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1153,7 +1150,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1175,7 +1172,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1186,7 +1183,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1197,7 +1194,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1208,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1230,7 +1227,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1241,7 +1238,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1263,7 +1260,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1274,7 +1271,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1285,7 +1282,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1296,7 +1293,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1307,17 +1304,6 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
         <v>68</v>
       </c>
     </row>

--- a/Results/Opinion/SERVICE.xlsx
+++ b/Results/Opinion/SERVICE.xlsx
@@ -85,9 +85,6 @@
     <t>fast</t>
   </si>
   <si>
-    <t>few</t>
-  </si>
-  <si>
     <t>friendlier</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>impeccable</t>
+  </si>
+  <si>
+    <t>ive</t>
   </si>
   <si>
     <t>japanese</t>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -809,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -853,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -897,7 +897,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -908,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -919,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -941,7 +941,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -952,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -974,7 +974,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1271,7 +1271,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3">
